--- a/advantage/PHPExcel/bulk_site_excel.xlsx
+++ b/advantage/PHPExcel/bulk_site_excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="165">
   <si>
     <t xml:space="preserve"> activity </t>
   </si>
@@ -153,27 +153,9 @@
     <t xml:space="preserve">longitude </t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>lhobhopal@advantagesb.com</t>
-  </si>
-  <si>
-    <t>PATNA</t>
-  </si>
-  <si>
-    <t>Shri Anjani Kumar</t>
-  </si>
-  <si>
-    <t>anjani.kumar@sbi.co.in</t>
-  </si>
-  <si>
     <t>lhopatna@advantagesb.com</t>
   </si>
   <si>
-    <t>8709133775 / 8809303272</t>
-  </si>
-  <si>
     <t>Nitish Kumar</t>
   </si>
   <si>
@@ -201,91 +183,340 @@
     <t>METRO</t>
   </si>
   <si>
-    <t>172.28.93.170</t>
-  </si>
-  <si>
-    <t>172.28.93.202</t>
-  </si>
-  <si>
-    <t>10.121.158.98</t>
-  </si>
-  <si>
-    <t>172.28.93.210</t>
-  </si>
-  <si>
-    <t>172.28.147.59</t>
-  </si>
-  <si>
-    <t>172.28.139.194</t>
-  </si>
-  <si>
-    <t>10.121.175.122</t>
-  </si>
-  <si>
     <t>172.28.64.138</t>
   </si>
   <si>
-    <t>Bihar</t>
-  </si>
-  <si>
     <t>URBAN</t>
   </si>
   <si>
     <t>NCR</t>
   </si>
   <si>
-    <t>PATNA RURAL</t>
-  </si>
-  <si>
     <t>Secure Value</t>
   </si>
   <si>
     <t>SELFSERVE 22E</t>
   </si>
   <si>
-    <t>S1BB014388502</t>
-  </si>
-  <si>
-    <t>S1BW014388487</t>
-  </si>
-  <si>
-    <t>S1BW014388503</t>
-  </si>
-  <si>
-    <t>S1BW014388480</t>
-  </si>
-  <si>
-    <t>S1BW014388494</t>
-  </si>
-  <si>
-    <t>S1BW014388493</t>
-  </si>
-  <si>
-    <t>S1BW014388478</t>
-  </si>
-  <si>
-    <t>S1BW014388490</t>
-  </si>
-  <si>
-    <t>GOVIND MITRA ROADPATNA MAIN 800004</t>
-  </si>
-  <si>
-    <t>ALAMGANJ ASHOK RAJPATHPATNA MAIN 800007</t>
-  </si>
-  <si>
-    <t>S K PETROL OLD BY PASS PATNA MAIN 800020</t>
-  </si>
-  <si>
-    <t>PATLIPUTRA MKT., PATNA CI PATNA MAIN 800008</t>
-  </si>
-  <si>
-    <t>PASCHIM DARWAZA, PATNA CI PATNA MAIN 800008</t>
-  </si>
-  <si>
-    <t>ALAKHNANDA APT, SHASTRI NPATNA MAIN 800023</t>
-  </si>
-  <si>
-    <t>R N PUMP ASHOK RAJPATPATNA MAIN 800006</t>
+    <t>S1NW031252100</t>
+  </si>
+  <si>
+    <t>SANTOSHI NAGAR, KESHAVPURA, KOTA324007</t>
+  </si>
+  <si>
+    <t>KOTA</t>
+  </si>
+  <si>
+    <t>RAJASTHAN</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>JAIPUR</t>
+  </si>
+  <si>
+    <t>Manish Shidhharth</t>
+  </si>
+  <si>
+    <t>manish.sidharth@sbi.co.in</t>
+  </si>
+  <si>
+    <t>Sudhir Sharma</t>
+  </si>
+  <si>
+    <t>lhojaipur@advantagesb.com</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>S1BG000603094</t>
+  </si>
+  <si>
+    <t>HP PETROL PUMP, AGRA GATE, PR MARG, AJMER305001</t>
+  </si>
+  <si>
+    <t>AJMER</t>
+  </si>
+  <si>
+    <t>DIEBOLD</t>
+  </si>
+  <si>
+    <t>D 429 CD</t>
+  </si>
+  <si>
+    <t>TATA-Nelco-Capex</t>
+  </si>
+  <si>
+    <t>TATA -Nelco</t>
+  </si>
+  <si>
+    <t>S1BW000603011</t>
+  </si>
+  <si>
+    <t>POLICE LINE AJMER305001</t>
+  </si>
+  <si>
+    <t>HUG-VSAT</t>
+  </si>
+  <si>
+    <t>S1BW031252019</t>
+  </si>
+  <si>
+    <t>S-132, INDIRA VIHAR, CAC, K, KOTA, RAJASTHAN, 324007324007</t>
+  </si>
+  <si>
+    <t>SEMI-URBAN</t>
+  </si>
+  <si>
+    <t>S1BW031252025</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA, 3K, TAL MANDI, OPP. KHANDELWAL NURSING HOME, KOTA324007</t>
+  </si>
+  <si>
+    <t>S1NG015415048</t>
+  </si>
+  <si>
+    <t>MANDORE ROAD, JODHPUR342001</t>
+  </si>
+  <si>
+    <t>JODHPUR</t>
+  </si>
+  <si>
+    <t>S1BB031252061</t>
+  </si>
+  <si>
+    <t>PALIKA BAZAR LANDMARK CITY KOTA324007</t>
+  </si>
+  <si>
+    <t>S1BW031116023</t>
+  </si>
+  <si>
+    <t>BHATI HPCL PETROL PUMP NAGAUR341001</t>
+  </si>
+  <si>
+    <t>NAGAURI</t>
+  </si>
+  <si>
+    <t>TATANET-VSAT</t>
+  </si>
+  <si>
+    <t>S1NW015415466</t>
+  </si>
+  <si>
+    <t>Sbi officer's Flats , near LIC Building ,Jodhpur 342006</t>
+  </si>
+  <si>
+    <t>S1NW000603030</t>
+  </si>
+  <si>
+    <t>RPSC Ajmer RPSC Ajmer   305001 RAJASTHAN305001</t>
+  </si>
+  <si>
+    <t>RURAL</t>
+  </si>
+  <si>
+    <t>S1BW031116022</t>
+  </si>
+  <si>
+    <t>ADITYA HOTEL NAGAUR341001</t>
+  </si>
+  <si>
+    <t>NAGAUR</t>
+  </si>
+  <si>
+    <t>S1BG000603010</t>
+  </si>
+  <si>
+    <t>C-1, CRPF,Kundan Nagar Ajmer305001</t>
+  </si>
+  <si>
+    <t>S1NB031252007</t>
+  </si>
+  <si>
+    <t>BARAN ROAD KOTA324007</t>
+  </si>
+  <si>
+    <t>S1NB031252104</t>
+  </si>
+  <si>
+    <t>SHOP NO. 03, RIDHI SIDHI SHOPPING MALL, 410, COMPETITION OLONY RANGBARI MAIN ROAD MAHAVEER NAGAR-III CIRCLE KOTA324007</t>
+  </si>
+  <si>
+    <t>S1NG014892002</t>
+  </si>
+  <si>
+    <t>SBI ATM IIT JODHPUR342005</t>
+  </si>
+  <si>
+    <t>S1NG000618009</t>
+  </si>
+  <si>
+    <t>GANPATI PLAZA, BEAWAR305901</t>
+  </si>
+  <si>
+    <t>BEAWAR</t>
+  </si>
+  <si>
+    <t>S1BW031252033</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA, GANDHIJI KI PUL, SHRIPURA, KOTA324007</t>
+  </si>
+  <si>
+    <t>S1BB031252065</t>
+  </si>
+  <si>
+    <t>AERODRUM CIRCLE324007</t>
+  </si>
+  <si>
+    <t>S1NW015415022</t>
+  </si>
+  <si>
+    <t>MATKI CHORAHA - JODHPUR,RAJASTHAN,342001342001</t>
+  </si>
+  <si>
+    <t>SIPL</t>
+  </si>
+  <si>
+    <t>S1NW000603039</t>
+  </si>
+  <si>
+    <t>Br. Code603Shreya Market, Station Road, Ajmer Shreya Market, Station Road, Ajmer Ajmer Ajmer 305001 RAJASTHAN305001</t>
+  </si>
+  <si>
+    <t>S1NG031116002</t>
+  </si>
+  <si>
+    <t>GHANDHI CHOWK NAGAUR341001</t>
+  </si>
+  <si>
+    <t>S1NW000603033</t>
+  </si>
+  <si>
+    <t>Br. Code603 Ram dental college , Ajmer Ram dental college , Ajmer Ajmer Ajmer 305001 RAJASTHAN305001</t>
+  </si>
+  <si>
+    <t>S1BG015415484</t>
+  </si>
+  <si>
+    <t>9 MILE Mandore JODHPUR324004</t>
+  </si>
+  <si>
+    <t>JODHPUR (MCO)</t>
+  </si>
+  <si>
+    <t>S1NG015415043</t>
+  </si>
+  <si>
+    <t>PALIWAL PETROL PUMP342001</t>
+  </si>
+  <si>
+    <t>S1NW031290001</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA NEAR BUS STAND , BAZAR ROAD, KUCHERA, DISTT. NAGAUR - 341024341024</t>
+  </si>
+  <si>
+    <t>S1NW000603029</t>
+  </si>
+  <si>
+    <t>STATION ROAD, AJMER, RAJASTHAN, 305001305001</t>
+  </si>
+  <si>
+    <t>S1BW031252014</t>
+  </si>
+  <si>
+    <t>2ND ATM AT BARAN ROAD, KOTA, RAJASTHAN, 324007324007</t>
+  </si>
+  <si>
+    <t>S1BG015415462</t>
+  </si>
+  <si>
+    <t>Krishna HPCL filling station342001</t>
+  </si>
+  <si>
+    <t>S1BG000603005</t>
+  </si>
+  <si>
+    <t>HPCL Petrol Pump KATCHERY ROAD305001</t>
+  </si>
+  <si>
+    <t>AJMER PUMP AJ</t>
+  </si>
+  <si>
+    <t>S1NG015415052</t>
+  </si>
+  <si>
+    <t>RLY STATION JODHPUR342001</t>
+  </si>
+  <si>
+    <t>HUG-IRCTC</t>
+  </si>
+  <si>
+    <t>S1NW015415467</t>
+  </si>
+  <si>
+    <t>STC BSF AREA JODHPUR STC BSF AREA JODHPUR   342001 RAJASTHAN342006</t>
+  </si>
+  <si>
+    <t>S1NG015415044</t>
+  </si>
+  <si>
+    <t>MANGAL FILLING STATION342001</t>
+  </si>
+  <si>
+    <t>S1BG000603007</t>
+  </si>
+  <si>
+    <t>NEAR STATE BANK OF INDIA, Amjer305001</t>
+  </si>
+  <si>
+    <t>S1NW015415030</t>
+  </si>
+  <si>
+    <t>Indian Air Force Station,  Vidhya Park Jodhpur342001</t>
+  </si>
+  <si>
+    <t>S1BG015415453</t>
+  </si>
+  <si>
+    <t>RAILWAY STATION JODHPUR RAJASTAN342001</t>
+  </si>
+  <si>
+    <t>S1BG000603008</t>
+  </si>
+  <si>
+    <t>Group Centre,Crpf Campus305001</t>
+  </si>
+  <si>
+    <t>S1NG015415046</t>
+  </si>
+  <si>
+    <t>INCOME TAX OFFICE JODHPUR342001</t>
+  </si>
+  <si>
+    <t>S1BG031252011</t>
+  </si>
+  <si>
+    <t>2ND ATM AT OM CINE PLEX324007</t>
+  </si>
+  <si>
+    <t>S1NW031206005</t>
+  </si>
+  <si>
+    <t>Near Bus Stand, Osian, Jodhpur342303</t>
+  </si>
+  <si>
+    <t>OSIAN</t>
+  </si>
+  <si>
+    <t>S1NG015415047</t>
+  </si>
+  <si>
+    <t>SARASWATI NAGAR JODHPUR342006</t>
   </si>
 </sst>
 </file>
@@ -653,11 +884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -821,7 +1052,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -830,46 +1061,46 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="1">
-        <v>9431017634</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>37</v>
@@ -881,31 +1112,31 @@
         <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AD2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AG2" s="2">
         <v>44938</v>
@@ -916,11 +1147,11 @@
       <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>10</v>
+      <c r="AJ2" s="1">
+        <v>25.122444999999999</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>75.903718999999995</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -934,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -943,46 +1174,46 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1">
-        <v>9431017634</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>37</v>
@@ -994,31 +1225,31 @@
         <v>36</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AE3" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG3" s="2">
         <v>44938</v>
@@ -1029,11 +1260,11 @@
       <c r="AI3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>10</v>
+      <c r="AJ3" s="1">
+        <v>26.459440000000001</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>74.635559999999998</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1047,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1056,46 +1287,46 @@
         <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9431017634</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>37</v>
@@ -1107,31 +1338,31 @@
         <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AE4" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AG4" s="2">
         <v>44938</v>
@@ -1142,11 +1373,11 @@
       <c r="AI4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>10</v>
+      <c r="AJ4" s="1">
+        <v>26.478010999999999</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>74.646452999999994</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1160,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1169,46 +1400,46 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1">
-        <v>9431017634</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>37</v>
@@ -1220,31 +1451,31 @@
         <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AE5" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG5" s="2">
         <v>44938</v>
@@ -1255,11 +1486,11 @@
       <c r="AI5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>10</v>
+      <c r="AJ5" s="1">
+        <v>25.118386000000001</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>76.036676999999997</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1273,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1282,46 +1513,46 @@
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1">
-        <v>9431017634</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>37</v>
@@ -1333,31 +1564,31 @@
         <v>36</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AE6" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG6" s="2">
         <v>44938</v>
@@ -1368,11 +1599,11 @@
       <c r="AI6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>10</v>
+      <c r="AJ6" s="1">
+        <v>25.118580000000001</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>76.036377000000002</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1386,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1398,43 +1629,43 @@
         <v>85</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="1">
-        <v>9431017634</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>37</v>
@@ -1446,31 +1677,31 @@
         <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AE7" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG7" s="2">
         <v>44938</v>
@@ -1481,11 +1712,11 @@
       <c r="AI7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>10</v>
+      <c r="AJ7" s="1">
+        <v>26.319032</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>73.044337999999996</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1499,7 +1730,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1508,46 +1739,46 @@
         <v>10</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M8" s="1">
-        <v>9431017634</v>
+        <v>9414078702</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9321455563</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="S8" s="1">
+        <v>9321455563</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>37</v>
@@ -1559,31 +1790,31 @@
         <v>36</v>
       </c>
       <c r="X8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="AE8" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG8" s="2">
         <v>44938</v>
@@ -1594,11 +1825,11 @@
       <c r="AI8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>10</v>
+      <c r="AJ8" s="1">
+        <v>25.138853999999998</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>75.838194000000001</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1612,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1621,46 +1852,46 @@
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M9" s="1">
-        <v>9431017634</v>
+        <v>9414078702</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9321455563</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="S9" s="1">
+        <v>9321455563</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>37</v>
@@ -1672,31 +1903,31 @@
         <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AE9" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AG9" s="2">
         <v>44938</v>
@@ -1707,11 +1938,3627 @@
       <c r="AI9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>10</v>
+      <c r="AJ9" s="1">
+        <v>27.114598999999998</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>73.793324999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>26.774324</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>72.682078000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>26.407070000000001</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>74.659909999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>27.196455</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>26.456598</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>74.652861000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>25.202870999999998</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>75.956945000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>25.118466999999999</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>76.036102999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>26.472346999999999</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>73.118033999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>26.104671</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>74.319773999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>25.101345999999999</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>76.003095999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S19" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>25.175011999999999</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>75.853140999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>26.304414000000001</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>73.052338000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>26.450789</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>74.636078999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>27.198823999999998</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>73.741811999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>26.455249999999999</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>74.635799000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>26.263863000000001</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>73.008956999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>26.367564999999999</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>72.625798000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>26.981582</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>73.966059999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>26.455249999999999</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>74.635799000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>25.202016</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>75.956945000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>26.366026999999999</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>72.638501000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>26.475594999999998</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>74.611748000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>26.284313999999998</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>73.022480999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>26.333898999999999</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>73.041978999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>26.266849000000001</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>72.991444000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>26.470032</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>74.645651000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S35" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>26.828258000000002</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>72.610667000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>26.337579999999999</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>73.040758999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>26.45449</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>74.592487000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>26.278044999999999</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>72.998174000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>25.140915</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>75.844126000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>26.975218999999999</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>72.763102000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="1">
+        <v>9414078702</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41" s="1">
+        <v>9321455563</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>44938</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>26.798843000000002</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>72.572215</v>
       </c>
     </row>
   </sheetData>

--- a/advantage/PHPExcel/bulk_site_excel.xlsx
+++ b/advantage/PHPExcel/bulk_site_excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="186">
   <si>
     <t xml:space="preserve"> activity </t>
   </si>
@@ -150,69 +150,451 @@
     <t xml:space="preserve">longitude </t>
   </si>
   <si>
-    <t>Anil Samdurkar </t>
-  </si>
-  <si>
-    <t>022-26445143/ 9623115555 </t>
-  </si>
-  <si>
-    <t>agmsnp.mah@sbi.co.in</t>
-  </si>
-  <si>
-    <t>Dhananjay Sharma</t>
-  </si>
-  <si>
-    <t>dhananjay@advantagesb.com</t>
-  </si>
-  <si>
-    <t>S1BB000158102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Railway Station Puri to New Parking Lot of Lord Jagannath, Puri. </t>
-  </si>
-  <si>
-    <t>Puri</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>172.38.166.193</t>
-  </si>
-  <si>
-    <t>BHUBANESHWAR</t>
-  </si>
-  <si>
     <t>OFFSITE</t>
   </si>
   <si>
     <t>URBAN</t>
+  </si>
+  <si>
+    <t>S1BW012221082</t>
+  </si>
+  <si>
+    <t>RAM RAM BANK CHAURAHA 226004</t>
+  </si>
+  <si>
+    <t>LUCKNOW</t>
+  </si>
+  <si>
+    <t>UTTAR PRADESH</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Ganga Ram</t>
+  </si>
+  <si>
+    <t>Ganga.Ram02@sbi.co.in</t>
+  </si>
+  <si>
+    <t>Ashish Mishra</t>
+  </si>
+  <si>
+    <t>lholucknow@advantagesb.com</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>Vendor Managed</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>HYOSUNG</t>
+  </si>
+  <si>
+    <t>MX 5600S</t>
+  </si>
+  <si>
+    <t>METRO</t>
+  </si>
+  <si>
+    <t>172.36.80.147</t>
+  </si>
+  <si>
+    <t>TATANET-VSAT</t>
+  </si>
+  <si>
+    <t>TATA -Nelco</t>
+  </si>
+  <si>
+    <t>S1BW012221067</t>
+  </si>
+  <si>
+    <t>NAKA ROAD 226001</t>
+  </si>
+  <si>
+    <t>Secure Value</t>
+  </si>
+  <si>
+    <t>172.28.74.194</t>
+  </si>
+  <si>
+    <t>AIRTEL-VSAT</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>S1BW012221088</t>
+  </si>
+  <si>
+    <t>35 PAC BATALION 226001</t>
+  </si>
+  <si>
+    <t>172.28.90.234</t>
+  </si>
+  <si>
+    <t>S1BW012221094</t>
+  </si>
+  <si>
+    <t>NEAR KAISERBAGH BUS STAND 226001</t>
+  </si>
+  <si>
+    <t>172.28.83.242</t>
+  </si>
+  <si>
+    <t>S1NW012221429</t>
+  </si>
+  <si>
+    <t>CANCER INSTITUTE,SULTANPU 226002</t>
+  </si>
+  <si>
+    <t>Branch Managed</t>
+  </si>
+  <si>
+    <t>172.28.84.59</t>
+  </si>
+  <si>
+    <t>S1BW012221108</t>
+  </si>
+  <si>
+    <t>DASHMESH APPTT. 226001</t>
+  </si>
+  <si>
+    <t>172.28.87.34</t>
+  </si>
+  <si>
+    <t>S1BW012221079</t>
+  </si>
+  <si>
+    <t>BADSHAH NAGAR RLY STATION 226004</t>
+  </si>
+  <si>
+    <t>172.36.80.115</t>
+  </si>
+  <si>
+    <t>S1BW012221085</t>
+  </si>
+  <si>
+    <t>NEAR CATHEDRAL CHURCH 226001</t>
+  </si>
+  <si>
+    <t>172.36.55.234</t>
+  </si>
+  <si>
+    <t>S1BW012221091</t>
+  </si>
+  <si>
+    <t>GALAXY TOWER 226001</t>
+  </si>
+  <si>
+    <t>172.28.83.218</t>
+  </si>
+  <si>
+    <t>S1NW012221432</t>
+  </si>
+  <si>
+    <t>ADARSH KARAGAR 226002</t>
+  </si>
+  <si>
+    <t>172.28.111.35</t>
+  </si>
+  <si>
+    <t>S1NW012221397</t>
+  </si>
+  <si>
+    <t>MALAXMI SWEETS 226004</t>
+  </si>
+  <si>
+    <t>172.38.38.59</t>
+  </si>
+  <si>
+    <t>HUG-VSAT</t>
+  </si>
+  <si>
+    <t>S1BW012221105</t>
+  </si>
+  <si>
+    <t>NEAR JANIS HOSPITAL, VIVE 226001</t>
+  </si>
+  <si>
+    <t>172.28.84.82</t>
+  </si>
+  <si>
+    <t>S1BW012221138</t>
+  </si>
+  <si>
+    <t>RAJAJIPURA 226001</t>
+  </si>
+  <si>
+    <t>172.28.101.218</t>
+  </si>
+  <si>
+    <t>S1BW012221129</t>
+  </si>
+  <si>
+    <t>SETH RAM JAS ROAD,NARHI 226001</t>
+  </si>
+  <si>
+    <t>172.28.101.194</t>
+  </si>
+  <si>
+    <t>S1BW012221135</t>
+  </si>
+  <si>
+    <t>EXECUTIVE ENCLAVE 226001</t>
+  </si>
+  <si>
+    <t>172.36.80.90</t>
+  </si>
+  <si>
+    <t>S1BW012221141</t>
+  </si>
+  <si>
+    <t>INDRALOK COLONY 226001</t>
+  </si>
+  <si>
+    <t>172.28.101.250</t>
+  </si>
+  <si>
+    <t>S1BW012221132</t>
+  </si>
+  <si>
+    <t>VIJAY KHAND 226001</t>
+  </si>
+  <si>
+    <t>172.28.101.162</t>
+  </si>
+  <si>
+    <t>S1NW012221107</t>
+  </si>
+  <si>
+    <t>SONIA GANDHI MARKET 226001</t>
+  </si>
+  <si>
+    <t>RURAL</t>
+  </si>
+  <si>
+    <t>172.28.84.98</t>
+  </si>
+  <si>
+    <t>S1NW012221084</t>
+  </si>
+  <si>
+    <t>ELDECO EXPRESS PLAZA 226001</t>
+  </si>
+  <si>
+    <t>172.36.55.178</t>
+  </si>
+  <si>
+    <t>S1NW012221185</t>
+  </si>
+  <si>
+    <t>NEAR ST. JOSEPH SCHOOL 226004</t>
+  </si>
+  <si>
+    <t>172.28.132.187</t>
+  </si>
+  <si>
+    <t>S1NW012221191</t>
+  </si>
+  <si>
+    <t>RAJAJIPURAM 226001</t>
+  </si>
+  <si>
+    <t>172.28.101.243</t>
+  </si>
+  <si>
+    <t>S1BW012221044</t>
+  </si>
+  <si>
+    <t>172.36.56.18</t>
+  </si>
+  <si>
+    <t>S1BW012221050</t>
+  </si>
+  <si>
+    <t>ZOO GATE END 226001</t>
+  </si>
+  <si>
+    <t>172.36.55.242</t>
+  </si>
+  <si>
+    <t>S1BW012221195</t>
+  </si>
+  <si>
+    <t>SGPGI OLD OPD 226014</t>
+  </si>
+  <si>
+    <t>172.36.202.114</t>
+  </si>
+  <si>
+    <t>TATA-Nelco-Capex</t>
+  </si>
+  <si>
+    <t>S1NW012221176</t>
+  </si>
+  <si>
+    <t>NEAR BUS STATION 226001</t>
+  </si>
+  <si>
+    <t>172.28.152.154</t>
+  </si>
+  <si>
+    <t>S1NW012221182</t>
+  </si>
+  <si>
+    <t>ITAUNJA 226001</t>
+  </si>
+  <si>
+    <t>172.36.80.122</t>
+  </si>
+  <si>
+    <t>S1NW012221167</t>
+  </si>
+  <si>
+    <t>PCDA CANTONMENT 226001</t>
+  </si>
+  <si>
+    <t>172.28.148.234</t>
+  </si>
+  <si>
+    <t>S1NW012221173</t>
+  </si>
+  <si>
+    <t>HAJ COMMITTEE 226001</t>
+  </si>
+  <si>
+    <t>172.28.132.146</t>
+  </si>
+  <si>
+    <t>S1NW012221164</t>
+  </si>
+  <si>
+    <t>KANCHANA BIHARI MARG 226001</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>172.28.117.162</t>
+  </si>
+  <si>
+    <t>S1NW012221170</t>
+  </si>
+  <si>
+    <t>RAJAJIPURAM, 226001</t>
+  </si>
+  <si>
+    <t>172.28.117.138</t>
+  </si>
+  <si>
+    <t>S1NW012221161</t>
+  </si>
+  <si>
+    <t>KRISHNAPALLI ECO PARK 226012</t>
+  </si>
+  <si>
+    <t>172.28.117.154</t>
+  </si>
+  <si>
+    <t>S1BW012221005</t>
+  </si>
+  <si>
+    <t>ARIF CHAMBER 226022</t>
+  </si>
+  <si>
+    <t>172.36.80.131</t>
+  </si>
+  <si>
+    <t>S1BW012221147</t>
+  </si>
+  <si>
+    <t>TRIVENI NAGAR 226011</t>
+  </si>
+  <si>
+    <t>172.28.111.82</t>
+  </si>
+  <si>
+    <t>S1NW012221154</t>
+  </si>
+  <si>
+    <t>11 GRC 2ND LUCKNOW 226001</t>
+  </si>
+  <si>
+    <t>172.28.67.51</t>
+  </si>
+  <si>
+    <t>S1BW012221001</t>
+  </si>
+  <si>
+    <t>172.36.55.235</t>
+  </si>
+  <si>
+    <t>S1BW012221146</t>
+  </si>
+  <si>
+    <t>MAA SHARDA COMPLEX 226001</t>
+  </si>
+  <si>
+    <t>172.28.111.58</t>
+  </si>
+  <si>
+    <t>S1NW015506001</t>
+  </si>
+  <si>
+    <t>SBI BANTHRA 227101</t>
+  </si>
+  <si>
+    <t>S1BW012221137</t>
+  </si>
+  <si>
+    <t>PARAG DAIRY 226001</t>
+  </si>
+  <si>
+    <t>172.28.101.210</t>
+  </si>
+  <si>
+    <t>S1BW012221134</t>
+  </si>
+  <si>
+    <t>NEAR UJALA APARTMENT 226004</t>
+  </si>
+  <si>
+    <t>172.28.101.178</t>
+  </si>
+  <si>
+    <t>S1BB012221312</t>
+  </si>
+  <si>
+    <t>AZAD NAGAR AIRPORT 226010</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>SELFSERVE 22E</t>
+  </si>
+  <si>
+    <t>172.36.58.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,13 +626,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -259,19 +634,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -300,21 +686,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -322,7 +721,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -593,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -750,7 +1170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -760,114 +1180,4362 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9322198687</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="1">
-        <v>9322198687</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="O2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>10</v>
+      <c r="W2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>44942</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="Z9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S21" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S38" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG39" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG40" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S41" s="4">
+        <v>7703002190</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>45310</v>
+      </c>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="mailto:agmsnp.mah@sbi.co.in"/>
+    <hyperlink ref="N2" r:id="rId1" display="mailto:Ganga.Ram02@sbi.co.in"/>
+    <hyperlink ref="N3:N40" r:id="rId2" display="mailto:Ganga.Ram02@sbi.co.in"/>
+    <hyperlink ref="N41" r:id="rId3" display="mailto:Ganga.Ram02@sbi.co.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/advantage/PHPExcel/bulk_site_excel.xlsx
+++ b/advantage/PHPExcel/bulk_site_excel.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
   <si>
     <t xml:space="preserve"> activity </t>
   </si>
@@ -150,102 +150,133 @@
     <t xml:space="preserve">longitude </t>
   </si>
   <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>AMARAVATI</t>
+  </si>
+  <si>
+    <t>S LAKSHMI</t>
+  </si>
+  <si>
+    <t>agmac2.and@sbi.co.in</t>
+  </si>
+  <si>
+    <t>Srinivasa Rao . A</t>
+  </si>
+  <si>
+    <t>lhohyderabad@advantagesb.com</t>
+  </si>
+  <si>
+    <t>AGS</t>
+  </si>
+  <si>
+    <t>Vendor Managed</t>
+  </si>
+  <si>
+    <t>Secure Value</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>SELFSERVE 22E</t>
+  </si>
+  <si>
     <t>OFFSITE</t>
   </si>
   <si>
-    <t>HITACHI</t>
-  </si>
-  <si>
-    <t>Vendor Managed</t>
-  </si>
-  <si>
-    <t>HYOSUNG</t>
-  </si>
-  <si>
-    <t>MX 5600S</t>
+    <t>URBAN</t>
+  </si>
+  <si>
+    <t>AIRTEL-VSAT</t>
   </si>
   <si>
     <t>Hughes</t>
   </si>
   <si>
-    <t>South</t>
+    <t>DIEBOLD</t>
+  </si>
+  <si>
+    <t>D 429 CD</t>
+  </si>
+  <si>
+    <t>TATA -Nelco</t>
+  </si>
+  <si>
+    <t>TATA-Nelco-Capex</t>
+  </si>
+  <si>
+    <t>S1NB000844120</t>
+  </si>
+  <si>
+    <t>OPPOSITE MILITARY CANTEEN GUNTUR 522007</t>
+  </si>
+  <si>
+    <t>S1BB000844168</t>
+  </si>
+  <si>
+    <t>GUNTUR ALA HOSPITAL CENTR GUNTUR 522003</t>
+  </si>
+  <si>
+    <t>S1NG000844002</t>
+  </si>
+  <si>
+    <t>CLOTH BAZAR, KOTHAPETA, G GUNTUR 522002</t>
+  </si>
+  <si>
+    <t>S1BB000844092</t>
+  </si>
+  <si>
+    <t>HPCL PETROL BUNK NALLAPAD GUNTUR 522005</t>
+  </si>
+  <si>
+    <t>S1NG000844001</t>
+  </si>
+  <si>
+    <t>PEDDAPALAKALURU VILLAGE GUNTUR 522002</t>
+  </si>
+  <si>
+    <t>S1BB000844097</t>
+  </si>
+  <si>
+    <t>MANGALAGIRI ROAD GUNTUR GUNTUR 522007</t>
+  </si>
+  <si>
+    <t>S1BG000844094</t>
+  </si>
+  <si>
+    <t>APSRTC BUS STAND GUNTUR 522001</t>
+  </si>
+  <si>
+    <t>GUNTUR</t>
+  </si>
+  <si>
+    <t>172.38.152.90</t>
   </si>
   <si>
     <t>HUG-VSAT</t>
   </si>
   <si>
-    <t>S1BW032090129</t>
-  </si>
-  <si>
-    <r>
-      <t>BPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> PETROL PUMP , SIRSI ROAD , JAIPUR 32155</t>
-    </r>
-  </si>
-  <si>
-    <t>RAJASTHAN</t>
-  </si>
-  <si>
-    <t>JAIPUR</t>
-  </si>
-  <si>
-    <r>
-      <t>BAPPA  PAUL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9571296777</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>bappa.paul@sbi.co.in</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>URBAN</t>
-  </si>
-  <si>
-    <t>172.38.18.67</t>
+    <t>172.28.154.75</t>
+  </si>
+  <si>
+    <t>172.38.144.186</t>
+  </si>
+  <si>
+    <t>172.28.110.155</t>
+  </si>
+  <si>
+    <t>172.38.144.194</t>
+  </si>
+  <si>
+    <t>172.28.142.131</t>
+  </si>
+  <si>
+    <t>172.37.5.98</t>
   </si>
 </sst>
 </file>
@@ -255,12 +286,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,26 +350,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +365,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,35 +402,36 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -691,11 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -714,8 +746,8 @@
     <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26" bestFit="1" customWidth="1"/>
@@ -735,7 +767,7 @@
     <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -848,7 +880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -858,8 +890,8 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>50</v>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -867,47 +899,47 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>53</v>
+      <c r="G2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>10</v>
+      <c r="R2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>36</v>
@@ -916,56 +948,739 @@
         <v>37</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="J3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AG3" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="M4" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="O4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="K5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AA6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AB6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9573344480</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="6">
-        <v>45311</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ2" s="13">
-        <v>26.922633000000001</v>
-      </c>
-      <c r="AK2" s="13">
-        <v>75.688042999999993</v>
+      <c r="P8" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="11">
+        <v>9246810443</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>45316</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q3:Q8" r:id="rId1" display="mailto:lhohyderabad@advantagesb.com"/>
+    <hyperlink ref="T3:T8" r:id="rId2" display="mailto:lhohyderabad@advantagesb.com"/>
+    <hyperlink ref="Q2" r:id="rId3" display="mailto:lhohyderabad@advantagesb.com"/>
+    <hyperlink ref="Q3:Q8" r:id="rId4" display="mailto:lhohyderabad@advantagesb.com"/>
+    <hyperlink ref="T2" r:id="rId5" display="mailto:lhohyderabad@advantagesb.com"/>
+    <hyperlink ref="T3:T8" r:id="rId6" display="mailto:lhohyderabad@advantagesb.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/advantage/PHPExcel/bulk_site_excel.xlsx
+++ b/advantage/PHPExcel/bulk_site_excel.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="192">
   <si>
     <t xml:space="preserve"> activity </t>
   </si>
@@ -150,133 +150,454 @@
     <t xml:space="preserve">longitude </t>
   </si>
   <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>ANDHRA PRADESH</t>
-  </si>
-  <si>
-    <t>AMARAVATI</t>
-  </si>
-  <si>
-    <t>S LAKSHMI</t>
-  </si>
-  <si>
-    <t>agmac2.and@sbi.co.in</t>
-  </si>
-  <si>
-    <t>Srinivasa Rao . A</t>
-  </si>
-  <si>
-    <t>lhohyderabad@advantagesb.com</t>
-  </si>
-  <si>
-    <t>AGS</t>
-  </si>
-  <si>
     <t>Vendor Managed</t>
   </si>
   <si>
+    <t>OFFSITE</t>
+  </si>
+  <si>
+    <t>URBAN</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>HUG-VSAT</t>
+  </si>
+  <si>
+    <t>HYOSUNG</t>
+  </si>
+  <si>
+    <t>MX 5600S</t>
+  </si>
+  <si>
+    <t>SELFSERVE 22E</t>
+  </si>
+  <si>
     <t>Secure Value</t>
   </si>
   <si>
     <t>NCR</t>
   </si>
   <si>
-    <t>SELFSERVE 22E</t>
-  </si>
-  <si>
-    <t>OFFSITE</t>
-  </si>
-  <si>
-    <t>URBAN</t>
+    <t>METRO</t>
+  </si>
+  <si>
+    <t>TATA-Nelco-Capex</t>
+  </si>
+  <si>
+    <t>TATA -Nelco</t>
+  </si>
+  <si>
+    <t>DIEBOLD</t>
+  </si>
+  <si>
+    <t>D 429 CD</t>
+  </si>
+  <si>
+    <t>S1BB017036088</t>
+  </si>
+  <si>
+    <t>S1BB016534575</t>
+  </si>
+  <si>
+    <t>S1BB016534576</t>
+  </si>
+  <si>
+    <t>S1BW016534577</t>
+  </si>
+  <si>
+    <t>S1BW017036124</t>
+  </si>
+  <si>
+    <t>S1BW017036068</t>
+  </si>
+  <si>
+    <t>S1BG016534409</t>
+  </si>
+  <si>
+    <t>S1BW017036024</t>
+  </si>
+  <si>
+    <t>S1BW000691010</t>
+  </si>
+  <si>
+    <t>S1BW017036076</t>
+  </si>
+  <si>
+    <t>S1NG016534309</t>
+  </si>
+  <si>
+    <t>S1BG017036597</t>
+  </si>
+  <si>
+    <t>S1BB016534404</t>
+  </si>
+  <si>
+    <t>S1NW016534541</t>
+  </si>
+  <si>
+    <t>S1BG016534403</t>
+  </si>
+  <si>
+    <t>S1BG016534402</t>
+  </si>
+  <si>
+    <t>S1NB016534320</t>
+  </si>
+  <si>
+    <t>S1NB016534308</t>
+  </si>
+  <si>
+    <t>S1NG016534422</t>
+  </si>
+  <si>
+    <t>S1NW016534311</t>
+  </si>
+  <si>
+    <t>S1BW016534593</t>
+  </si>
+  <si>
+    <t>S1NW016534313</t>
+  </si>
+  <si>
+    <t>S1NW016534443</t>
+  </si>
+  <si>
+    <t>S1BG016534450</t>
+  </si>
+  <si>
+    <t>S1NB016534307</t>
+  </si>
+  <si>
+    <t>S1NG016534324</t>
+  </si>
+  <si>
+    <t>S1NW016534542</t>
+  </si>
+  <si>
+    <t>S1BB016534424</t>
+  </si>
+  <si>
+    <t>S1BW017036070</t>
+  </si>
+  <si>
+    <t>S1BW000691008</t>
+  </si>
+  <si>
+    <t>S1NB016534316</t>
+  </si>
+  <si>
+    <t>S1NB016534318</t>
+  </si>
+  <si>
+    <t>S1NB016534401</t>
+  </si>
+  <si>
+    <t>S1NW016534310</t>
+  </si>
+  <si>
+    <t>S1NG016534314</t>
+  </si>
+  <si>
+    <t>S1BG017036083</t>
+  </si>
+  <si>
+    <t>S1NW016534326</t>
+  </si>
+  <si>
+    <t>S1NG016534325</t>
+  </si>
+  <si>
+    <t>NEW DELHI RAILWAY STATION 110055</t>
+  </si>
+  <si>
+    <t>INDRAPRASTHA ESTATE 110002</t>
+  </si>
+  <si>
+    <t>BHAGWAN DASS ROAD 110002</t>
+  </si>
+  <si>
+    <t>124 INF BN 110002</t>
+  </si>
+  <si>
+    <t>BHOGAL ROAD 110014</t>
+  </si>
+  <si>
+    <t>KISHAN GANJ RAILWAY ST 110007</t>
+  </si>
+  <si>
+    <t>NEAR JHANDEWALAN TEMPLE 110055</t>
+  </si>
+  <si>
+    <t>INDIAN COAST GUARD HQ 110002</t>
+  </si>
+  <si>
+    <t>HINDU RAO HOSPITAL 110007</t>
+  </si>
+  <si>
+    <t>SUPREME COURT NEW PREMISE 110002</t>
+  </si>
+  <si>
+    <t>TILAK BRIDGE RLY STN 110002</t>
+  </si>
+  <si>
+    <t>SUPREME COURT MAIN BUILDI 110002</t>
+  </si>
+  <si>
+    <t>SUPREME COURT NEW BUILDIN 110002</t>
+  </si>
+  <si>
+    <t>UIDAI CENTER 110001</t>
+  </si>
+  <si>
+    <t>GOLE MARKET 110001</t>
+  </si>
+  <si>
+    <t>RAJEEV CHOWK METRO STA 110001</t>
+  </si>
+  <si>
+    <t>MEITY, LODHI ROAD 110003</t>
+  </si>
+  <si>
+    <t>MP FLATS NARMADA APARTMEN 110001</t>
+  </si>
+  <si>
+    <t>M S FLATS 110001</t>
+  </si>
+  <si>
+    <t>RAJGHAT PARKING 110002</t>
+  </si>
+  <si>
+    <t>SBI ATM MODE TOWN 110006</t>
+  </si>
+  <si>
+    <t>MANDI HOUSE NDMC 110002</t>
+  </si>
+  <si>
+    <t>PUNJAB HOUSE 110002</t>
+  </si>
+  <si>
+    <t>SHAKTI SADAN 110002</t>
+  </si>
+  <si>
+    <t>RAJEEV CHOWK METRO STATIO 110001</t>
+  </si>
+  <si>
+    <t>VIDHUT VIHAR 110014</t>
+  </si>
+  <si>
+    <t>SABJI MANDI RAILWAY STATI 110007</t>
+  </si>
+  <si>
+    <t>POWER FINANCE CORPORATION 110002</t>
+  </si>
+  <si>
+    <t>JANPATH METRO NDMC 110001</t>
+  </si>
+  <si>
+    <t>NDMC OPP EASTERN COURT 110001</t>
+  </si>
+  <si>
+    <t>RASHTRAPATI BHAWAN 110011</t>
+  </si>
+  <si>
+    <t>HOTEL NEST 110055</t>
+  </si>
+  <si>
+    <t>GULABI BAGH PETROL PUMP 110007</t>
+  </si>
+  <si>
+    <t>NIZAMUDDIN RAILWAY STATIO 110013</t>
+  </si>
+  <si>
+    <t>NIZAMUDDIN RAILWAY STATIO 110014</t>
+  </si>
+  <si>
+    <t>NEW DELHI</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sujeet Kumar </t>
+  </si>
+  <si>
+    <t>cmac3.delhi@sbi.co.in / sujit.lohani@sbi.co.in</t>
+  </si>
+  <si>
+    <t>Mukesh Kumar</t>
+  </si>
+  <si>
+    <t>lhodelhi@advantagesb.com</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>SIPL</t>
+  </si>
+  <si>
+    <t>VSAT</t>
+  </si>
+  <si>
+    <t>Vodafone-3G</t>
+  </si>
+  <si>
+    <t>PAHAR GANJ</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>172.38.96.130</t>
+  </si>
+  <si>
+    <t>172.38.96.132</t>
+  </si>
+  <si>
+    <t>172.38.96.131</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>172.38.33.83</t>
+  </si>
+  <si>
+    <t>DARYA GANJ</t>
+  </si>
+  <si>
+    <t>172.38.42.242</t>
+  </si>
+  <si>
+    <t>172.38.81.98</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>172.36.202.210</t>
+  </si>
+  <si>
+    <t>172.38.94.18</t>
+  </si>
+  <si>
+    <t>10.121.242.182</t>
   </si>
   <si>
     <t>AIRTEL-VSAT</t>
   </si>
   <si>
-    <t>Hughes</t>
-  </si>
-  <si>
-    <t>DIEBOLD</t>
-  </si>
-  <si>
-    <t>D 429 CD</t>
-  </si>
-  <si>
-    <t>TATA -Nelco</t>
-  </si>
-  <si>
-    <t>TATA-Nelco-Capex</t>
-  </si>
-  <si>
-    <t>S1NB000844120</t>
-  </si>
-  <si>
-    <t>OPPOSITE MILITARY CANTEEN GUNTUR 522007</t>
-  </si>
-  <si>
-    <t>S1BB000844168</t>
-  </si>
-  <si>
-    <t>GUNTUR ALA HOSPITAL CENTR GUNTUR 522003</t>
-  </si>
-  <si>
-    <t>S1NG000844002</t>
-  </si>
-  <si>
-    <t>CLOTH BAZAR, KOTHAPETA, G GUNTUR 522002</t>
-  </si>
-  <si>
-    <t>S1BB000844092</t>
-  </si>
-  <si>
-    <t>HPCL PETROL BUNK NALLAPAD GUNTUR 522005</t>
-  </si>
-  <si>
-    <t>S1NG000844001</t>
-  </si>
-  <si>
-    <t>PEDDAPALAKALURU VILLAGE GUNTUR 522002</t>
-  </si>
-  <si>
-    <t>S1BB000844097</t>
-  </si>
-  <si>
-    <t>MANGALAGIRI ROAD GUNTUR GUNTUR 522007</t>
-  </si>
-  <si>
-    <t>S1BG000844094</t>
-  </si>
-  <si>
-    <t>APSRTC BUS STAND GUNTUR 522001</t>
-  </si>
-  <si>
-    <t>GUNTUR</t>
-  </si>
-  <si>
-    <t>172.38.152.90</t>
-  </si>
-  <si>
-    <t>HUG-VSAT</t>
-  </si>
-  <si>
-    <t>172.28.154.75</t>
-  </si>
-  <si>
-    <t>172.38.144.186</t>
-  </si>
-  <si>
-    <t>172.28.110.155</t>
-  </si>
-  <si>
-    <t>172.38.144.194</t>
-  </si>
-  <si>
-    <t>172.28.142.131</t>
-  </si>
-  <si>
-    <t>172.37.5.98</t>
+    <t>172.36.195.66</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>172.38.70.18</t>
+  </si>
+  <si>
+    <t>172.38.70.26</t>
+  </si>
+  <si>
+    <t>172.38.86.115</t>
+  </si>
+  <si>
+    <t>172.38.76.66</t>
+  </si>
+  <si>
+    <t>172.38.76.82</t>
+  </si>
+  <si>
+    <t>172.38.69.42</t>
+  </si>
+  <si>
+    <t>172.38.69.26</t>
+  </si>
+  <si>
+    <t>172.38.69.66</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>172.36.203.202</t>
+  </si>
+  <si>
+    <t>10.121.161.11</t>
+  </si>
+  <si>
+    <t>10.121.161.210</t>
+  </si>
+  <si>
+    <t>172.38.57.171</t>
+  </si>
+  <si>
+    <t>172.36.194.34</t>
+  </si>
+  <si>
+    <t>172.38.150.42</t>
+  </si>
+  <si>
+    <t>172.36.29.58</t>
+  </si>
+  <si>
+    <t>TATANET-VSAT</t>
+  </si>
+  <si>
+    <t>172.38.81.106</t>
+  </si>
+  <si>
+    <t>172.38.69.51</t>
+  </si>
+  <si>
+    <t>KALKAJI</t>
+  </si>
+  <si>
+    <t>172.28.66.66</t>
+  </si>
+  <si>
+    <t>SADAR BAZAR</t>
+  </si>
+  <si>
+    <t>172.34.2.154</t>
+  </si>
+  <si>
+    <t>HUG-IRCTC</t>
+  </si>
+  <si>
+    <t>172.38.81.154</t>
+  </si>
+  <si>
+    <t>CONNAUGHT PLA</t>
+  </si>
+  <si>
+    <t>172.38.150.50</t>
+  </si>
+  <si>
+    <t>172.38.150.58</t>
+  </si>
+  <si>
+    <t>PARLIAMENT ST</t>
+  </si>
+  <si>
+    <t>172.36.201.10</t>
+  </si>
+  <si>
+    <t>172.28.66.59</t>
+  </si>
+  <si>
+    <t>172.38.89.227</t>
+  </si>
+  <si>
+    <t>DEFENCE COLON</t>
+  </si>
+  <si>
+    <t>172.38.48.106</t>
   </si>
 </sst>
 </file>
@@ -286,19 +607,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,18 +664,48 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -371,8 +715,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -402,35 +752,43 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +799,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,11 +1091,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -738,7 +1106,7 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
@@ -880,7 +1248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -891,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -899,47 +1267,47 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>43</v>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>36</v>
@@ -947,53 +1315,49 @@
       <c r="V2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>57</v>
+      <c r="W2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF2" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG2" s="6">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="AH2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1368,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1012,47 +1376,47 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>43</v>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>36</v>
@@ -1061,52 +1425,48 @@
         <v>37</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AD3" s="5" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG3" s="6">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="AH3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AI3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1125,47 +1485,47 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>43</v>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>36</v>
@@ -1174,52 +1534,48 @@
         <v>37</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG4" s="6">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="AH4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1586,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1238,47 +1594,47 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>43</v>
+      <c r="G5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>36</v>
@@ -1287,52 +1643,48 @@
         <v>37</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="Z5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG5" s="6">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="AH5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1351,47 +1703,47 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>43</v>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>36</v>
@@ -1400,52 +1752,48 @@
         <v>37</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG6" s="6">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="AH6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1464,47 +1812,47 @@
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>43</v>
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S7" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>36</v>
@@ -1513,52 +1861,48 @@
         <v>37</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AD7" s="5" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG7" s="6">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="AH7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AI7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK7" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1577,47 +1921,47 @@
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>43</v>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="1">
-        <v>9573344480</v>
+        <v>132</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="15">
+        <v>8511192671</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="11">
-        <v>9246810443</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>36</v>
@@ -1626,61 +1970,3393 @@
         <v>37</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S10" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S11" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S12" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S14" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AB14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S15" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S16" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AA18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S20" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AG21" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+    </row>
+    <row r="22" spans="1:37" ht="15" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="1:37" ht="15" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S25" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AA25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S26" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S27" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+    </row>
+    <row r="28" spans="1:37" ht="15" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S28" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="1:37" ht="15" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>45316</v>
-      </c>
-      <c r="AH8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK8" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S29" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="1:37" ht="15" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="31" spans="1:37" ht="15" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S31" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+    </row>
+    <row r="32" spans="1:37" ht="15" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S32" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+    </row>
+    <row r="33" spans="1:37" ht="15" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M33" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S33" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+    </row>
+    <row r="34" spans="1:37" ht="15" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S34" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+    </row>
+    <row r="35" spans="1:37" ht="15" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+    </row>
+    <row r="36" spans="1:37" ht="15" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S36" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD36" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="1:37" ht="15" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M37" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S37" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="1:37" ht="15" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M38" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P38" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S38" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+    </row>
+    <row r="39" spans="1:37" ht="15" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="15">
+        <v>8511192671</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P39" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S39" s="16">
+        <v>8700657113</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>45321</v>
+      </c>
+      <c r="AH39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q3:Q8" r:id="rId1" display="mailto:lhohyderabad@advantagesb.com"/>
-    <hyperlink ref="T3:T8" r:id="rId2" display="mailto:lhohyderabad@advantagesb.com"/>
-    <hyperlink ref="Q2" r:id="rId3" display="mailto:lhohyderabad@advantagesb.com"/>
-    <hyperlink ref="Q3:Q8" r:id="rId4" display="mailto:lhohyderabad@advantagesb.com"/>
-    <hyperlink ref="T2" r:id="rId5" display="mailto:lhohyderabad@advantagesb.com"/>
-    <hyperlink ref="T3:T8" r:id="rId6" display="mailto:lhohyderabad@advantagesb.com"/>
+    <hyperlink ref="N2" r:id="rId1" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N3:N25" r:id="rId2" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N26" r:id="rId3" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N27" r:id="rId4" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N28" r:id="rId5" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N29" r:id="rId6" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N30" r:id="rId7" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N31" r:id="rId8" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N32" r:id="rId9" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N33" r:id="rId10" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N34" r:id="rId11" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N35" r:id="rId12" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N36" r:id="rId13" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N37" r:id="rId14" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N38" r:id="rId15" display="cmac3.delhi@sbi.co.in / "/>
+    <hyperlink ref="N39" r:id="rId16" display="cmac3.delhi@sbi.co.in / "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>